--- a/API/Resources/Template/ProductCategory/ProductCategoryListTemplate.xlsx
+++ b/API/Resources/Template/ProductCategory/ProductCategoryListTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu.nguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIEU\hoc\DropzoneUpdate\API\Resources\Template\ProductCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>&amp;=result.Product_Cate_Name</t>
-  </si>
-  <si>
-    <t>&amp;=result.Status</t>
   </si>
   <si>
     <t>&amp;=result.Position</t>
@@ -429,7 +426,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +434,8 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
   </cols>
@@ -473,17 +471,15 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
